--- a/Attach/FactoryClient/規模化報表.xlsx
+++ b/Attach/FactoryClient/規模化報表.xlsx
@@ -10,34 +10,128 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="39">
   <si>
-    <t>飯食部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>素香大雞排佐一閃一閃亮晶晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>總表</t>
   </si>
   <si>
     <t>飯食部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>素香大雞排佐一閃一閃亮晶晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>超級無敵海景佛跳牆(123$.)</t>
   </si>
   <si>
-    <t>素香大雞排佐一閃一閃亮晶晶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>起司豬排 香腸 三副菜(123$.)</t>
   </si>
   <si>
-    <t>飯食部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>蒜泥白肉 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>烤肉飯 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>香煎無骨雞腿排 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>紅燒肉飯 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>香酥雞腿 雞塊 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>焢肉飯 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>蒲燒魚 薯餅 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>焗烤部</t>
+  </si>
+  <si>
+    <t>蔥抓餅 蛋 豬排(123$.)</t>
+  </si>
+  <si>
+    <t>煎餃(123$.)</t>
+  </si>
+  <si>
+    <t>鹹酥雞飯 二副菜(123$.)</t>
+  </si>
+  <si>
+    <t>雞肉絲飯 二副菜(123$.)</t>
+  </si>
+  <si>
+    <t>培根炒飯(123$.)</t>
+  </si>
+  <si>
+    <t>焗烤培根飯 雞排(123$.)</t>
+  </si>
+  <si>
+    <t>焗烤培根麵 雞排(123$.)</t>
+  </si>
+  <si>
+    <t>黑胡椒丼飯 三副菜(123$.)</t>
+  </si>
+  <si>
+    <t>韓式拌飯(123$.)</t>
+  </si>
+  <si>
+    <t>培根炒飯 卡拉雞(123$.)</t>
+  </si>
+  <si>
+    <t>牛肉燴飯(123$.)</t>
+  </si>
+  <si>
+    <t>原味小火鍋(123$.)</t>
+  </si>
+  <si>
+    <t>麵食部</t>
+  </si>
+  <si>
+    <t>張君雅泡乾麵 蛋 青菜(123$.)</t>
+  </si>
+  <si>
+    <t>台南擔仔乾麵 蛋 小菜(123$.)</t>
+  </si>
+  <si>
+    <t>牛肉湯麵(123$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯麵 豬血 臭豆腐 青菜(123$.)</t>
+  </si>
+  <si>
+    <t>粄條乾 蛋 青菜(123$.)</t>
+  </si>
+  <si>
+    <t>酸辣湯麵(123$.)</t>
+  </si>
+  <si>
+    <t>酸辣湯餃(123$.)</t>
+  </si>
+  <si>
+    <t>味噌湯麵 蛋 丸子 青菜(123$.)</t>
+  </si>
+  <si>
+    <t>麻辣湯張君雅 豬血 臭豆腐 肉片(123$.)</t>
+  </si>
+  <si>
+    <t>味噌拉麵 蛋 豚骨(123$.)</t>
+  </si>
+  <si>
+    <t>牛肉麵(123$.)</t>
+  </si>
+  <si>
+    <t>羊肉羹麵(123$.)</t>
+  </si>
+  <si>
+    <t>酸辣湯麵 蛋 雞腿(123$.)</t>
+  </si>
+  <si>
+    <t>貢丸豚骨麵(123$.)</t>
   </si>
 </sst>
 </file>
@@ -97,43 +191,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <border>
         <left/>
@@ -494,288 +552,6127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E614"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="1.25" customWidth="1"/>
+    <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>201</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>205</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
-        <v>100</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>104</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>107</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>107</v>
+      </c>
+      <c r="E67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>119</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>101</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>119</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>101</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100">
+        <v>7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>19</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>22</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108">
+        <v>101</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>760</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>106</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>760</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135">
+        <v>106</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" t="s">
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>760</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149">
+        <v>106</v>
+      </c>
+      <c r="E149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="D153" t="s">
+        <v>28</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>33</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>36</v>
+      </c>
+      <c r="D161" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D162" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>216</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>105</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>216</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>105</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="D177" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>15</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>216</v>
+      </c>
+      <c r="B190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190">
+        <v>105</v>
+      </c>
+      <c r="E190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>25</v>
+      </c>
+      <c r="D191" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>27</v>
+      </c>
+      <c r="D193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>29</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>29</v>
+      </c>
+      <c r="E195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>30</v>
+      </c>
+      <c r="D196" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>31</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" t="s">
+        <v>32</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
+      <c r="D202" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>37</v>
+      </c>
+      <c r="D203" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>38</v>
+      </c>
+      <c r="D204" t="s">
+        <v>38</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>118</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>116</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>118</v>
+      </c>
+      <c r="B217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D217">
+        <v>116</v>
+      </c>
+      <c r="E217" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>16</v>
+      </c>
+      <c r="B222">
+        <v>10</v>
+      </c>
+      <c r="D222" t="s">
+        <v>16</v>
+      </c>
+      <c r="E222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>17</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>18</v>
+      </c>
+      <c r="D224" t="s">
+        <v>18</v>
+      </c>
+      <c r="E224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>19</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>20</v>
+      </c>
+      <c r="B226">
+        <v>10</v>
+      </c>
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>21</v>
+      </c>
+      <c r="B227">
+        <v>5</v>
+      </c>
+      <c r="D227" t="s">
+        <v>21</v>
+      </c>
+      <c r="E227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>22</v>
+      </c>
+      <c r="B228">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s">
+        <v>22</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>118</v>
+      </c>
+      <c r="B231" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231">
+        <v>116</v>
+      </c>
+      <c r="E231" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>26</v>
+      </c>
+      <c r="B233">
+        <v>4</v>
+      </c>
+      <c r="D233" t="s">
+        <v>26</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>29</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>29</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>30</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>31</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>31</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>32</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>32</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>33</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>33</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>34</v>
+      </c>
+      <c r="D241" t="s">
+        <v>34</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>35</v>
+      </c>
+      <c r="D242" t="s">
+        <v>35</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" t="s">
+        <v>36</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>37</v>
+      </c>
+      <c r="D244" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>38</v>
+      </c>
+      <c r="D245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>301</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>114</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>3</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>10</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>301</v>
+      </c>
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+      <c r="D258">
+        <v>114</v>
+      </c>
+      <c r="E258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>12</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>16</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>17</v>
+      </c>
+      <c r="D264" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>18</v>
+      </c>
+      <c r="D265" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>19</v>
+      </c>
+      <c r="D266" t="s">
+        <v>19</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>20</v>
+      </c>
+      <c r="B267">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>22</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="D269" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D270" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>301</v>
+      </c>
+      <c r="B272" t="s">
+        <v>24</v>
+      </c>
+      <c r="D272">
+        <v>114</v>
+      </c>
+      <c r="E272" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>25</v>
+      </c>
+      <c r="B273">
+        <v>5</v>
+      </c>
+      <c r="D273" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>26</v>
+      </c>
+      <c r="D274" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>27</v>
+      </c>
+      <c r="D275" t="s">
+        <v>27</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>28</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>29</v>
+      </c>
+      <c r="D277" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>30</v>
+      </c>
+      <c r="D278" t="s">
+        <v>30</v>
+      </c>
+      <c r="E278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279" t="s">
+        <v>31</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>33</v>
+      </c>
+      <c r="D281" t="s">
+        <v>33</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>34</v>
+      </c>
+      <c r="D282" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>35</v>
+      </c>
+      <c r="D283" t="s">
+        <v>35</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>36</v>
+      </c>
+      <c r="D284" t="s">
+        <v>36</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>37</v>
+      </c>
+      <c r="D285" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>38</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>117</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>108</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>3</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>5</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>8</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>9</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>117</v>
+      </c>
+      <c r="B299" t="s">
+        <v>11</v>
+      </c>
+      <c r="D299">
+        <v>108</v>
+      </c>
+      <c r="E299" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>12</v>
+      </c>
+      <c r="B300">
+        <v>3</v>
+      </c>
+      <c r="D300" t="s">
+        <v>12</v>
+      </c>
+      <c r="E300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301">
+        <v>5</v>
+      </c>
+      <c r="D301" t="s">
+        <v>13</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302">
+        <v>4</v>
+      </c>
+      <c r="D302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>15</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>15</v>
+      </c>
+      <c r="E303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>16</v>
+      </c>
+      <c r="B304">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>16</v>
+      </c>
+      <c r="E304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305">
+        <v>7</v>
+      </c>
+      <c r="D305" t="s">
+        <v>17</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="D306" t="s">
+        <v>18</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" t="s">
+        <v>19</v>
+      </c>
+      <c r="E307">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+      <c r="D308" t="s">
+        <v>20</v>
+      </c>
+      <c r="E308">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>21</v>
+      </c>
+      <c r="B309">
+        <v>4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>21</v>
+      </c>
+      <c r="E309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>22</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+      <c r="D310" t="s">
+        <v>22</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>117</v>
+      </c>
+      <c r="B313" t="s">
+        <v>24</v>
+      </c>
+      <c r="D313">
+        <v>108</v>
+      </c>
+      <c r="E313" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>25</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>26</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>27</v>
+      </c>
+      <c r="D316" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="D318" t="s">
+        <v>29</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>31</v>
+      </c>
+      <c r="D320" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>32</v>
+      </c>
+      <c r="D321" t="s">
+        <v>32</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>33</v>
+      </c>
+      <c r="D322" t="s">
+        <v>33</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>34</v>
+      </c>
+      <c r="D323" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>36</v>
+      </c>
+      <c r="D325" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>120</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>210</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="D331" t="s">
+        <v>3</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="D333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>7</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338">
+        <v>2</v>
+      </c>
+      <c r="D338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>120</v>
+      </c>
+      <c r="B340" t="s">
+        <v>11</v>
+      </c>
+      <c r="D340">
+        <v>210</v>
+      </c>
+      <c r="E340" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>12</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="D341" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>14</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>14</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>15</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>16</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>17</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>17</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>18</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>19</v>
+      </c>
+      <c r="D348" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>20</v>
+      </c>
+      <c r="B349">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>20</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>21</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>22</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>22</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>23</v>
+      </c>
+      <c r="D352" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>120</v>
+      </c>
+      <c r="B354" t="s">
+        <v>24</v>
+      </c>
+      <c r="D354">
+        <v>210</v>
+      </c>
+      <c r="E354" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>25</v>
+      </c>
+      <c r="B355">
+        <v>10</v>
+      </c>
+      <c r="D355" t="s">
+        <v>25</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>26</v>
+      </c>
+      <c r="D356" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>27</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>29</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>30</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>31</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="D362" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>34</v>
+      </c>
+      <c r="D364" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>35</v>
+      </c>
+      <c r="D365" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>36</v>
+      </c>
+      <c r="D366" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>37</v>
+      </c>
+      <c r="D367" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>38</v>
+      </c>
+      <c r="D368" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>103</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>111</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>2</v>
+      </c>
+      <c r="B371">
+        <v>2</v>
+      </c>
+      <c r="D371" t="s">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>3</v>
+      </c>
+      <c r="D372" t="s">
+        <v>3</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>5</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>8</v>
+      </c>
+      <c r="B377">
+        <v>2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>103</v>
+      </c>
+      <c r="B381" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381">
+        <v>111</v>
+      </c>
+      <c r="E381" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>12</v>
+      </c>
+      <c r="B382">
+        <v>3</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>13</v>
+      </c>
+      <c r="B383">
+        <v>8</v>
+      </c>
+      <c r="D383" t="s">
+        <v>13</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>14</v>
+      </c>
+      <c r="D384" t="s">
+        <v>14</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>15</v>
+      </c>
+      <c r="B385">
+        <v>3</v>
+      </c>
+      <c r="D385" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>16</v>
+      </c>
+      <c r="B386">
+        <v>4</v>
+      </c>
+      <c r="D386" t="s">
+        <v>16</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>17</v>
+      </c>
+      <c r="B387">
+        <v>3</v>
+      </c>
+      <c r="D387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="D388" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>19</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>20</v>
+      </c>
+      <c r="B390">
+        <v>3</v>
+      </c>
+      <c r="D390" t="s">
+        <v>20</v>
+      </c>
+      <c r="E390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>21</v>
+      </c>
+      <c r="B391">
+        <v>3</v>
+      </c>
+      <c r="D391" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>22</v>
+      </c>
+      <c r="B392">
+        <v>5</v>
+      </c>
+      <c r="D392" t="s">
+        <v>22</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>23</v>
+      </c>
+      <c r="D393" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>103</v>
+      </c>
+      <c r="B395" t="s">
+        <v>24</v>
+      </c>
+      <c r="D395">
+        <v>111</v>
+      </c>
+      <c r="E395" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>25</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>26</v>
+      </c>
+      <c r="D397" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>27</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>27</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>28</v>
+      </c>
+      <c r="D399" t="s">
+        <v>28</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>29</v>
+      </c>
+      <c r="B400">
+        <v>1</v>
+      </c>
+      <c r="D400" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>30</v>
+      </c>
+      <c r="D401" t="s">
+        <v>30</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>31</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>32</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>32</v>
+      </c>
+      <c r="E403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>33</v>
+      </c>
+      <c r="D404" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>34</v>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+      <c r="D405" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>35</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>35</v>
+      </c>
+      <c r="E406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>36</v>
+      </c>
+      <c r="D407" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>37</v>
+      </c>
+      <c r="D408" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>38</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>304</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1</v>
+      </c>
+      <c r="D411">
+        <v>115</v>
+      </c>
+      <c r="E411" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>2</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>3</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="D414" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>5</v>
+      </c>
+      <c r="D415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>8</v>
+      </c>
+      <c r="D418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>10</v>
+      </c>
+      <c r="D420" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>304</v>
+      </c>
+      <c r="B422" t="s">
+        <v>11</v>
+      </c>
+      <c r="D422">
+        <v>115</v>
+      </c>
+      <c r="E422" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>13</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>15</v>
+      </c>
+      <c r="B426">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>16</v>
+      </c>
+      <c r="D427" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>17</v>
+      </c>
+      <c r="D428" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>18</v>
+      </c>
+      <c r="D429" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>19</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>20</v>
+      </c>
+      <c r="B431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>20</v>
+      </c>
+      <c r="E431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>21</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>22</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>23</v>
+      </c>
+      <c r="D434" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>304</v>
+      </c>
+      <c r="B436" t="s">
+        <v>24</v>
+      </c>
+      <c r="D436">
+        <v>115</v>
+      </c>
+      <c r="E436" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>25</v>
+      </c>
+      <c r="D437" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>26</v>
+      </c>
+      <c r="D438" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>27</v>
+      </c>
+      <c r="D439" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>28</v>
+      </c>
+      <c r="D440" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>29</v>
+      </c>
+      <c r="D441" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>30</v>
+      </c>
+      <c r="D442" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>31</v>
+      </c>
+      <c r="D443" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>32</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>33</v>
+      </c>
+      <c r="D445" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>34</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>35</v>
+      </c>
+      <c r="D447" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>36</v>
+      </c>
+      <c r="D448" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>37</v>
+      </c>
+      <c r="D449" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>38</v>
+      </c>
+      <c r="D450" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>208</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>205</v>
+      </c>
+      <c r="E452" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>2</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2</v>
+      </c>
+      <c r="E453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>3</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456">
+        <v>14</v>
+      </c>
+      <c r="D456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457">
+        <v>5</v>
+      </c>
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458">
+        <v>3</v>
+      </c>
+      <c r="D458" t="s">
+        <v>7</v>
+      </c>
+      <c r="E458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>8</v>
+      </c>
+      <c r="D459" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>9</v>
+      </c>
+      <c r="B460">
+        <v>4</v>
+      </c>
+      <c r="D460" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>10</v>
+      </c>
+      <c r="B461">
+        <v>3</v>
+      </c>
+      <c r="D461" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>208</v>
+      </c>
+      <c r="B463" t="s">
+        <v>11</v>
+      </c>
+      <c r="D463">
+        <v>205</v>
+      </c>
+      <c r="E463" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>12</v>
+      </c>
+      <c r="D464" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>13</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>14</v>
+      </c>
+      <c r="B466">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>15</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>16</v>
+      </c>
+      <c r="B468">
+        <v>3</v>
+      </c>
+      <c r="D468" t="s">
+        <v>16</v>
+      </c>
+      <c r="E468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>17</v>
+      </c>
+      <c r="D469" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>18</v>
+      </c>
+      <c r="D470" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>19</v>
+      </c>
+      <c r="B471">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>20</v>
+      </c>
+      <c r="B472">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>21</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>21</v>
+      </c>
+      <c r="E473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>22</v>
+      </c>
+      <c r="D474" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>23</v>
+      </c>
+      <c r="D475" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>208</v>
+      </c>
+      <c r="B477" t="s">
+        <v>24</v>
+      </c>
+      <c r="D477">
+        <v>205</v>
+      </c>
+      <c r="E477" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>25</v>
+      </c>
+      <c r="D478" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>26</v>
+      </c>
+      <c r="B479">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>27</v>
+      </c>
+      <c r="D480" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>28</v>
+      </c>
+      <c r="D481" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>29</v>
+      </c>
+      <c r="D482" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>30</v>
+      </c>
+      <c r="D483" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>31</v>
+      </c>
+      <c r="D484" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>32</v>
+      </c>
+      <c r="D485" t="s">
+        <v>32</v>
+      </c>
+      <c r="E485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>33</v>
+      </c>
+      <c r="D486" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>34</v>
+      </c>
+      <c r="B487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>36</v>
+      </c>
+      <c r="B489">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>37</v>
+      </c>
+      <c r="D490" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>38</v>
+      </c>
+      <c r="D491" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>318</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1</v>
+      </c>
+      <c r="D493">
+        <v>206</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>2</v>
+      </c>
+      <c r="B494">
+        <v>4</v>
+      </c>
+      <c r="D494" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>3</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497">
+        <v>5</v>
+      </c>
+      <c r="D497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="D499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>8</v>
+      </c>
+      <c r="D500" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>9</v>
+      </c>
+      <c r="D501" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>10</v>
+      </c>
+      <c r="D502" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>318</v>
+      </c>
+      <c r="B504" t="s">
+        <v>11</v>
+      </c>
+      <c r="D504">
+        <v>206</v>
+      </c>
+      <c r="E504" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>12</v>
+      </c>
+      <c r="D505" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>13</v>
+      </c>
+      <c r="D506" t="s">
+        <v>13</v>
+      </c>
+      <c r="E506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>14</v>
+      </c>
+      <c r="D507" t="s">
+        <v>14</v>
+      </c>
+      <c r="E507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>16</v>
+      </c>
+      <c r="D509" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>17</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="D510" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>18</v>
+      </c>
+      <c r="D511" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>19</v>
+      </c>
+      <c r="D512" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>20</v>
+      </c>
+      <c r="B513">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>21</v>
+      </c>
+      <c r="D514" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>22</v>
+      </c>
+      <c r="D515" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>23</v>
+      </c>
+      <c r="D516" t="s">
+        <v>23</v>
+      </c>
+      <c r="E516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>318</v>
+      </c>
+      <c r="B518" t="s">
+        <v>24</v>
+      </c>
+      <c r="D518">
+        <v>206</v>
+      </c>
+      <c r="E518" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>25</v>
+      </c>
+      <c r="D519" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>26</v>
+      </c>
+      <c r="D520" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>27</v>
+      </c>
+      <c r="D521" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>28</v>
+      </c>
+      <c r="D522" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>29</v>
+      </c>
+      <c r="D523" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>30</v>
+      </c>
+      <c r="D524" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>31</v>
+      </c>
+      <c r="D525" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>32</v>
+      </c>
+      <c r="D526" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>33</v>
+      </c>
+      <c r="D527" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>34</v>
+      </c>
+      <c r="D528" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>35</v>
+      </c>
+      <c r="D529" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>36</v>
+      </c>
+      <c r="D530" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>37</v>
+      </c>
+      <c r="D531" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>38</v>
+      </c>
+      <c r="D532" t="s">
+        <v>38</v>
+      </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>102</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1</v>
+      </c>
+      <c r="D534">
+        <v>203</v>
+      </c>
+      <c r="E534" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>2</v>
+      </c>
+      <c r="D535" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>3</v>
+      </c>
+      <c r="D536" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>4</v>
+      </c>
+      <c r="D537" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>6</v>
+      </c>
+      <c r="D539" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>7</v>
+      </c>
+      <c r="D540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>8</v>
+      </c>
+      <c r="B541">
+        <v>1</v>
+      </c>
+      <c r="D541" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>9</v>
+      </c>
+      <c r="B542">
+        <v>1</v>
+      </c>
+      <c r="D542" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>10</v>
+      </c>
+      <c r="D543" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>102</v>
+      </c>
+      <c r="B545" t="s">
+        <v>11</v>
+      </c>
+      <c r="D545">
+        <v>203</v>
+      </c>
+      <c r="E545" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>12</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="D546" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>13</v>
+      </c>
+      <c r="D547" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>14</v>
+      </c>
+      <c r="D548" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>15</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>16</v>
+      </c>
+      <c r="D550" t="s">
+        <v>16</v>
+      </c>
+      <c r="E550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>17</v>
+      </c>
+      <c r="B551">
+        <v>1</v>
+      </c>
+      <c r="D551" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>18</v>
+      </c>
+      <c r="D552" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>19</v>
+      </c>
+      <c r="D553" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>20</v>
+      </c>
+      <c r="D554" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>21</v>
+      </c>
+      <c r="D555" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>22</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>23</v>
+      </c>
+      <c r="D557" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>102</v>
+      </c>
+      <c r="B559" t="s">
+        <v>24</v>
+      </c>
+      <c r="D559">
+        <v>203</v>
+      </c>
+      <c r="E559" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>25</v>
+      </c>
+      <c r="D560" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>26</v>
+      </c>
+      <c r="B561">
+        <v>1</v>
+      </c>
+      <c r="D561" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>27</v>
+      </c>
+      <c r="D562" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>28</v>
+      </c>
+      <c r="D563" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>29</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="D564" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>30</v>
+      </c>
+      <c r="B565">
+        <v>1</v>
+      </c>
+      <c r="D565" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>31</v>
+      </c>
+      <c r="D566" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>32</v>
+      </c>
+      <c r="D567" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>33</v>
+      </c>
+      <c r="D568" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>34</v>
+      </c>
+      <c r="D569" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>35</v>
+      </c>
+      <c r="B570">
+        <v>1</v>
+      </c>
+      <c r="D570" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>36</v>
+      </c>
+      <c r="D571" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>37</v>
+      </c>
+      <c r="D572" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>38</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>212</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>2</v>
+      </c>
+      <c r="B576">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>212</v>
+      </c>
+      <c r="B586" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>212</v>
+      </c>
+      <c r="B600" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:E10000">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>AND($E2=INT($E2),NOT($E2=""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B10000">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="A2:B10 A12:B10000">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>AND($B2=INT($B2),NOT($B2=""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($E11=INT($E11),NOT($E11=""))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="16383" man="1"/>
+  <rowBreaks count="14" manualBreakCount="14">
+    <brk id="41" max="16383" man="1"/>
+    <brk id="82" max="16383" man="1"/>
+    <brk id="123" max="16383" man="1"/>
+    <brk id="164" max="16383" man="1"/>
+    <brk id="205" max="16383" man="1"/>
+    <brk id="246" max="16383" man="1"/>
+    <brk id="287" max="16383" man="1"/>
+    <brk id="328" max="16383" man="1"/>
+    <brk id="369" max="16383" man="1"/>
+    <brk id="410" max="16383" man="1"/>
+    <brk id="451" max="16383" man="1"/>
+    <brk id="492" max="16383" man="1"/>
+    <brk id="533" max="16383" man="1"/>
+    <brk id="574" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>